--- a/inspection/shiro.xlsx
+++ b/inspection/shiro.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE9E1CE-D5A1-4193-8BE9-9094FF937E70}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -298,7 +305,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -640,25 +647,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="80" style="2" customWidth="1"/>
-    <col min="2" max="3" width="12.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="3"/>
-    <col min="5" max="5" width="12.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.6640625" style="3"/>
-    <col min="8" max="8" width="99.77734375" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="3"/>
+    <col min="2" max="3" width="12.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="3"/>
+    <col min="5" max="5" width="12.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.625" style="3"/>
+    <col min="8" max="8" width="99.75" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +678,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -686,7 +693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -697,7 +704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -708,7 +715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -719,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>68</v>
       </c>
@@ -733,7 +740,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -744,7 +751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -755,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -766,7 +773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>70</v>
       </c>
@@ -775,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -786,7 +793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>71</v>
       </c>
@@ -800,7 +807,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -811,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -819,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -830,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -841,7 +848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -852,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -863,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -874,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -885,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -896,7 +903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -907,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -918,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -929,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -940,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -951,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -962,7 +969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -973,7 +980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
@@ -984,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -995,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
@@ -1006,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
@@ -1017,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>73</v>
       </c>
@@ -1031,7 +1038,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -1042,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -1053,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -1064,7 +1071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -1075,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -1086,7 +1093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>75</v>
       </c>
@@ -1094,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>76</v>
       </c>
@@ -1102,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -1113,7 +1120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -1124,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -1135,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
@@ -1146,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -1157,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
@@ -1168,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -1179,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -1190,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -1201,7 +1208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
@@ -1212,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -1223,7 +1230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -1234,7 +1241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -1245,7 +1252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -1256,7 +1263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -1267,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
@@ -1278,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
@@ -1289,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
@@ -1300,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
@@ -1311,7 +1318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>77</v>
       </c>
@@ -1325,7 +1332,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>58</v>
       </c>
@@ -1334,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>59</v>
       </c>
@@ -1345,7 +1352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>60</v>
       </c>
@@ -1356,7 +1363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>61</v>
       </c>
@@ -1367,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>62</v>
       </c>
@@ -1378,7 +1385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>63</v>
       </c>
@@ -1389,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>64</v>
       </c>
@@ -1400,7 +1407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>65</v>
       </c>
@@ -1411,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>66</v>
       </c>
@@ -1422,7 +1429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>67</v>
       </c>
@@ -1433,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>79</v>
       </c>
@@ -1454,7 +1461,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>80</v>
       </c>
@@ -1467,7 +1474,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>81</v>
       </c>
@@ -1488,7 +1495,7 @@
         <v>0.96923076923076923</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>82</v>
       </c>
@@ -1501,7 +1508,7 @@
         <v>0.96923076923076923</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>83</v>
       </c>
